--- a/Dokumentumok/CsakEloreTesztelesiDokumentacio.xlsx
+++ b/Dokumentumok/CsakEloreTesztelesiDokumentacio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5A8DA5A-5089-42F3-8782-C10C311C2508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0223E6BC-6F82-4CBF-8784-9F6D11B69347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,74 +504,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,6 +600,384 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4562475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1085850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5548156-023B-7812-FCAF-E4E9D8D36CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="200025"/>
+          <a:ext cx="4562475" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Kép 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73DAD8D-0A97-B11F-22F7-BB11D67381C5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E5548156-023B-7812-FCAF-E4E9D8D36CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="4714875"/>
+          <a:ext cx="4572000" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4229100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Kép 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396D7498-3BE3-F12D-25D4-72E975A2D834}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A73DAD8D-0A97-B11F-22F7-BB11D67381C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="5848350"/>
+          <a:ext cx="4229100" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1038225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Kép 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C120EBC5-32C6-6B57-9911-ED561FD084BE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{396D7498-3BE3-F12D-25D4-72E975A2D834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="7381875"/>
+          <a:ext cx="4572000" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4067175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Kép 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C54E0A-F5C7-13C0-DCAE-B1C5D9B34695}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C120EBC5-32C6-6B57-9911-ED561FD084BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="8763000"/>
+          <a:ext cx="4067175" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4343400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1209675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Kép 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D631DF-9EFB-E91B-B300-155674F642D4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{54C54E0A-F5C7-13C0-DCAE-B1C5D9B34695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="10067925"/>
+          <a:ext cx="4343400" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4562475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1085850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Kép 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA63E720-97A2-6A73-ABC8-6F56E3109847}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{45D631DF-9EFB-E91B-B300-155674F642D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="2343150"/>
+          <a:ext cx="4562475" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4562475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1085850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Kép 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1972C1E0-A6BE-05AC-9269-4C63CBB3C1B1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DA63E720-97A2-6A73-ABC8-6F56E3109847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="3352800"/>
+          <a:ext cx="4562475" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -918,484 +1308,504 @@
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" customWidth="1"/>
     <col min="3" max="3" width="63.7109375" customWidth="1"/>
+    <col min="4" max="4" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" ht="89.25" customHeight="1">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" ht="79.5" customHeight="1">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="101.25" customHeight="1">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" ht="102.75" customHeight="1">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="4" t="s">
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="108" customHeight="1">
+      <c r="A8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" ht="102" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" ht="108.75" customHeight="1">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" ht="102.75" customHeight="1">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="108" customHeight="1">
+      <c r="A12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="7" t="s">
+      <c r="D12" s="26"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" ht="15.75">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="1"/>
@@ -1408,7 +1818,7 @@
       <c r="B53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1419,7 +1829,7 @@
       <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1430,7 +1840,7 @@
       <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1441,7 +1851,7 @@
       <c r="B56" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1452,7 +1862,7 @@
       <c r="B57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1463,7 +1873,7 @@
       <c r="B58" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1474,7 +1884,7 @@
       <c r="B59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1485,7 +1895,7 @@
       <c r="B60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1496,7 +1906,7 @@
       <c r="B61" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1504,21 +1914,21 @@
       <c r="A62" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1526,14 +1936,15 @@
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="14" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumentumok/CsakEloreTesztelesiDokumentacio.xlsx
+++ b/Dokumentumok/CsakEloreTesztelesiDokumentacio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0223E6BC-6F82-4CBF-8784-9F6D11B69347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3B719C-E723-47A9-A24A-EFC7A68D4E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,38 @@
     <t xml:space="preserve">Teszt2: </t>
   </si>
   <si>
-    <t>Belépés helyes adatokkal -  pl: felhasználóbév: Teszt1  jelszó: teszt123</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Belépés helyes adatokkal -  pl: felhasználóbév: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF45D65A"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Teszt1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  jelszó: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF45D65A"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>teszt123</t>
+    </r>
   </si>
   <si>
     <t>Beléptetés - Főmenü megnyitása</t>
@@ -57,13 +88,75 @@
     <t>Teszt3:</t>
   </si>
   <si>
-    <t>Belépés hibás adatokkal - pl.: felhasználónév: asd  jelszó: asd1</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Belépés hibás adatokkal - pl.: felhasználónév: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>asd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  jelszó: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>asd1</t>
+    </r>
   </si>
   <si>
     <t>Teszt4:</t>
   </si>
   <si>
-    <t>Helyes felhasználónév - pl.: Teszt1 - hibás jelszó - asd</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Helyes felhasználónév - pl.:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF45D65A"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Teszt1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> - hibás jelszó - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>asd</t>
+    </r>
   </si>
   <si>
     <t>Regisztráció</t>
@@ -319,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +428,16 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF45D65A"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -1300,7 +1403,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Dokumentumok/CsakEloreTesztelesiDokumentacio.xlsx
+++ b/Dokumentumok/CsakEloreTesztelesiDokumentacio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3B719C-E723-47A9-A24A-EFC7A68D4E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F17D6C8-A0A5-49A4-AFAF-973BE239EFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>Bejelentkezés</t>
   </si>
@@ -54,7 +54,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">Belépés helyes adatokkal -  pl: felhasználóbév: </t>
+      <t xml:space="preserve">Belépés helyes adatokkal -  pl: felhasználónév: </t>
     </r>
     <r>
       <rPr>
@@ -162,25 +162,183 @@
     <t>Regisztráció</t>
   </si>
   <si>
-    <t>Felhasználónév rövidebb 4 karakternél</t>
-  </si>
-  <si>
-    <t>E-mail cím hibás formátumú (nem tartalmaz: @; .)</t>
-  </si>
-  <si>
-    <t>Jelszó rövidebb 8 karakternél</t>
-  </si>
-  <si>
-    <t>Jelszó és ellenőrő jelszó nem egyezik</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Felhasználónév rövidebb 4 karakternél - pl.: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>asd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">E-mail cím hibás formátumú (nem tartalmaz: @; .) - pl.: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>asd@asdcom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> vagy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>asdasd.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Jelszó rövidebb 8 karakternél - pl.: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>asd1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Jelszó és ellenőrő jelszó nem egyezik pl.: jelszó:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF45D65A"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> teszt123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> ellenőrző: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>teszt12</t>
+    </r>
   </si>
   <si>
     <t>Teszt5:</t>
   </si>
   <si>
-    <t>Minden mező kitöltve és beírt adatok elfogadhatóak</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Minden mező kitöltve és beírt adatok elfogadhatóak  pl.: felhasználónév: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF45D65A"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Teszt1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF45D65A"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>teszt@teszt.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> jelszó: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF45D65A"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>teszt123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  ellenőrző: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF45D65A"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>teszt123</t>
+    </r>
   </si>
   <si>
     <t>Sikeres regisztráció, adatmentés adatbázisba, visszajelzés</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Felhasználói felületek</t>
@@ -596,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,6 +845,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,13 +1564,13 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="97.7109375" customWidth="1"/>
     <col min="3" max="3" width="63.7109375" customWidth="1"/>
     <col min="4" max="4" width="82.28515625" customWidth="1"/>
   </cols>
@@ -1532,11 +1693,11 @@
       </c>
       <c r="D11" s="26"/>
     </row>
-    <row r="12" spans="1:4" ht="108" customHeight="1">
+    <row r="12" spans="1:4" ht="138.75" customHeight="1">
       <c r="A12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -1544,16 +1705,21 @@
       </c>
       <c r="D12" s="26"/>
     </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1563,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
@@ -1574,15 +1740,15 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1592,10 +1758,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
@@ -1603,10 +1769,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
@@ -1614,15 +1780,15 @@
         <v>7</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1632,10 +1798,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
@@ -1643,10 +1809,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75">
@@ -1654,10 +1820,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
@@ -1665,15 +1831,15 @@
         <v>9</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1683,10 +1849,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75">
@@ -1694,10 +1860,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
@@ -1705,10 +1871,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75">
@@ -1716,10 +1882,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75">
@@ -1727,37 +1893,37 @@
         <v>16</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -1767,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75">
@@ -1778,10 +1944,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75">
@@ -1789,10 +1955,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75">
@@ -1800,15 +1966,15 @@
         <v>4</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1818,22 +1984,22 @@
         <v>1</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" ht="15.75">
       <c r="A43" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1843,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" customHeight="1">
@@ -1854,15 +2020,15 @@
         <v>4</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75">
       <c r="A46" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1872,10 +2038,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
@@ -1883,15 +2049,15 @@
         <v>4</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1901,15 +2067,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1919,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75">
@@ -1930,10 +2096,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75">
@@ -1941,10 +2107,10 @@
         <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75">
@@ -1952,10 +2118,10 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75">
@@ -1963,87 +2129,87 @@
         <v>16</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
